--- a/ela/templates/ELA_FORM_TMPL_A2S2.xlsx
+++ b/ela/templates/ELA_FORM_TMPL_A2S2.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="131">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">calculate</t>
   </si>
   <si>
-    <t xml:space="preserve">ela_form_id</t>
+    <t xml:space="preserve">form_id</t>
   </si>
   <si>
     <t xml:space="preserve">“{{ id }}”</t>
@@ -305,29 +305,11 @@
     <t xml:space="preserve">assessments</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">The following {{ assessment_count }} assessment(s) are included in this form
-{{ question_types[0] }}: {{ ela_asssessment_ids[0]  }}
-{{ question_types[1] }}: {{ ela_asssessment_ids[1]  }}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">{{ question_types[2] }}: {{ ela_asssessment_ids[2]  }}
-{{ question_types[3] }}: {{ ela_asssessment_ids[3]  }}</t>
-    </r>
+    <t xml:space="preserve">The following {{ assessment_count }} assessment(s) are included in this form
+{{ question_types[0] }}: {{ assessment_ids[0]  }}
+{{ question_types[1] }}: {{ assessment_ids[1]  }}
+{{ question_types[2] }}: {{ assessment_ids[2]  }}
+{{ question_types[3] }}: {{ assessment_ids[3]  }}</t>
   </si>
   <si>
     <t xml:space="preserve">num_assessments</t>
@@ -390,10 +372,10 @@
     <t xml:space="preserve">{{ question_prompts[0] }}</t>
   </si>
   <si>
-    <t xml:space="preserve">ela_asssessment_id_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“{{ asssessment_ids[0] }}”</t>
+    <t xml:space="preserve">assessment_id_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“{{ assessment_ids[0] }}”</t>
   </si>
   <si>
     <t xml:space="preserve">question_1_type</t>
@@ -429,10 +411,10 @@
     <t xml:space="preserve">{{ question_prompts[1] }}</t>
   </si>
   <si>
-    <t xml:space="preserve">ela_asssessment_id_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“{{ asssessment_ids[1] }}”</t>
+    <t xml:space="preserve">assessment_id_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“{{ assessment_ids[1] }}”</t>
   </si>
   <si>
     <t xml:space="preserve">question_2_type</t>
@@ -462,10 +444,10 @@
     <t xml:space="preserve">{{ question_prompts[2] }}</t>
   </si>
   <si>
-    <t xml:space="preserve">ela_asssessment_id_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“{{ asssessment_ids[2] }}”</t>
+    <t xml:space="preserve">assessment_id_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“{{ assessment_ids[2] }}”</t>
   </si>
   <si>
     <t xml:space="preserve">question_3_type</t>
@@ -492,10 +474,10 @@
     <t xml:space="preserve">{{ question_prompts[4] }}</t>
   </si>
   <si>
-    <t xml:space="preserve">ela_asssessment_id_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“{{ asssessment_ids[3] }}”</t>
+    <t xml:space="preserve">assessment_id_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“{{ assessment_ids[3] }}”</t>
   </si>
   <si>
     <t xml:space="preserve">question_4_type</t>
@@ -595,9 +577,6 @@
   </si>
   <si>
     <t xml:space="preserve">form_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
   </si>
   <si>
     <t xml:space="preserve">version</t>
@@ -631,7 +610,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -661,12 +640,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -747,11 +720,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -782,7 +755,7 @@
       <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.14"/>
@@ -1348,7 +1321,7 @@
       <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.63"/>
@@ -1610,7 +1583,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.13"/>
@@ -1622,13 +1595,13 @@
         <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1655,10 +1628,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1</v>
@@ -1687,31 +1660,31 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
